--- a/RQ3/result/GB/GB_7.xlsx
+++ b/RQ3/result/GB/GB_7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\GB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFEFF8A-8A89-4367-AF3B-328B9EE9D347}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113775D1-C3E0-4828-8803-6D73FF0CDCF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>why choice this API?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you are not sure of an answer, what is the reason (because the API documentation does not say, or there are no relevant resources on the web, or something else)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>if you solve problem by website, paste the original URL that supports your choice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -261,153 +249,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Which part do you think spends a lot of time? 1-Understand the problem 2-Use this method to query the time of the question 3-Read and understand the results of the query 4-make a decision</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_time_v2: (tool+doc) </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>java.lang.Class.getConstructors() return public constructors, not private.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-util-hashmap-in-java/</t>
-  </si>
-  <si>
-    <t>java.util.HashMap is unsynchronized.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">java.io.BufferedWriter write the characters to the underlying stream directly </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>java.awt.Window.dispose() release all of the native screen resources used by this Window.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java.util.HashMap make no guarantees as to the order of the map </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>What's the difference between next() and nextLine() methods from Scanner class?</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>java.util.Scanner.next() may block</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>java.sql.DriverManager.registerDriver(java.sql.Driver)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> which t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>he basic service for managing a set of JDBC drivers.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/java/sql/DriverManager.html</t>
-  </si>
-  <si>
-    <t>StringBuffer is thread-safe.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.pellegrino.link/2015/08/22/string-concatenation-with-java-8.html</t>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/7/docs/api/java/sql/SQLException.html#getNextException()</t>
-  </si>
-  <si>
-    <t>getNextException return the next SQLException object in the chain; null if there are none</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FileInputStream</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF353833"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> is meant for reading streams of raw bytes such as image data. For reading streams of characters, consider using FileReader.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/7/docs/api/java/io/FileInputStream.html</t>
-  </si>
-  <si>
-    <r>
-      <t>java.time.LocalDateTime.now(java.time.ZoneId)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the current date-time using the system clock, not null</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/java/time/LocalDateTime.html#now-java.time.ZoneId-</t>
   </si>
   <si>
     <t>If we only want to close a Java Swing application when a button is clicked, which method should I use?</t>
@@ -422,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,29 +305,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF353833"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -509,18 +329,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,19 +347,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9633286-95B1-461A-B199-009C1CB0DEF7}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,13 +680,10 @@
     <col min="7" max="8" width="50.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="49.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="31.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="25.375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="58.75" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -885,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -908,23 +714,8 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -932,22 +723,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -955,17 +746,8 @@
       <c r="J2" s="1">
         <v>249</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -973,22 +755,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -996,14 +778,8 @@
       <c r="J3" s="3">
         <v>131</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1011,22 +787,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -1034,17 +810,8 @@
       <c r="J4" s="1">
         <v>221</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1052,22 +819,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -1075,14 +842,8 @@
       <c r="J5" s="3">
         <v>95</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1090,22 +851,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -1113,17 +874,8 @@
       <c r="J6" s="1">
         <v>150</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1131,37 +883,31 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="6">
+        <v>51</v>
+      </c>
+      <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>142</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1169,22 +915,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1192,14 +938,8 @@
       <c r="J8" s="1">
         <v>338</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1207,37 +947,31 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="6">
+        <v>51</v>
+      </c>
+      <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>121</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1245,22 +979,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1268,18 +1002,8 @@
       <c r="J10" s="1">
         <v>237</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1287,22 +1011,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1310,14 +1034,8 @@
       <c r="J11" s="3">
         <v>99</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1325,22 +1043,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1348,19 +1066,8 @@
       <c r="J12" s="1">
         <v>87</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1368,22 +1075,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
@@ -1391,24 +1098,10 @@
       <c r="J13" s="3">
         <v>76</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O13" s="3">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1" xr:uid="{1F1C143A-E7A1-4369-A5CE-FFAE03241797}"/>
-    <hyperlink ref="N6" r:id="rId2" xr:uid="{6DDCCF55-B52E-4196-A0E3-C53BA52A8040}"/>
-    <hyperlink ref="N8" r:id="rId3" xr:uid="{0286D4CC-9D28-4BA6-B1A5-FF1985C13FC9}"/>
-    <hyperlink ref="N10" r:id="rId4" location="getNextException()" display="https://docs.oracle.com/javase/7/docs/api/java/sql/SQLException.html - getNextException()" xr:uid="{7C45ADFA-19A0-44CB-8941-A90B0581342B}"/>
-    <hyperlink ref="N12" r:id="rId5" xr:uid="{23861F9C-C63C-4BA1-BCF4-77FAE69B18D9}"/>
-    <hyperlink ref="N2" r:id="rId6" location="now-java.time.ZoneId-" display="https://docs.oracle.com/javase/8/docs/api/java/time/LocalDateTime.html - now-java.time.ZoneId-" xr:uid="{3A3AE96C-6233-41CF-B1CD-881A343B5DEC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RQ3/result/GB/GB_7.xlsx
+++ b/RQ3/result/GB/GB_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113775D1-C3E0-4828-8803-6D73FF0CDCF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D787F27F-4245-48F1-BFB8-3B0C6DB40352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -258,6 +254,10 @@
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_time:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +666,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:AH1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -723,22 +723,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -755,22 +755,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -787,22 +787,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -819,22 +819,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -851,22 +851,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -883,22 +883,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -915,22 +915,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -947,22 +947,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -979,22 +979,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1011,22 +1011,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1043,22 +1043,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1075,22 +1075,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
